--- a/test_questions_en.xlsx
+++ b/test_questions_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirong/Desktop/CCD_RAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5DDC6E-3D04-004E-956E-C96605EBFAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D982D9EF-CEAA-CF46-B8DC-B818AD60F088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="740" windowWidth="27180" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-6700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="414">
   <si>
     <t>id</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>“Expecting herbal medicine to work as quickly as Western medication – common mistake.” ​</t>
-  </si>
-  <si>
-    <t>Which of the following is one of the "Five Common Mistakes"? A Use only ≤3 prescriptions at a time B I hope that the effect of Chinese medicine and Western medicine is as rapid as C Select prescriptions according to TCVM Pattern D Evaluate environmental factors</t>
   </si>
   <si>
     <t>D</t>
@@ -1013,10 +1010,6 @@
   </si>
   <si>
     <t>According to TCVM concepts, "Deficiency Pattern" is typically seen in young and healthy animals</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defi ciency Patterns are often seen in geriatric patients with chronic illnesses.The Defi ciency Pattern is often seen in older patients with chronic illnesses.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1077,16 +1070,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Patients with Defi ciency Patterns usually exhibit general weakness, fatigue, leth-argy, a weak pulse, and a pale or red tongue.
-The typical clinical signs of a Defi ciency Pattern include general weakness, fatigue, lethargy, weak pulse, and a pale or red tongue.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>根據資料，草藥「白合 (Bai He)」，又稱「Lily bulb」，在古代法國曾代表王室的威嚴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>According to the sources, the herb "Bai He", also known as "Lily bulb", represented the majesty of the royal house in ancient France</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1102,14 +1086,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> According to a historical story in the sources, which herb was said to help Zhuge Liang's army feel warm during hunger and cold and scare away the enemy (despite causing an embarrassing side effect)?
-A) Bai He
-B) Ba Ji Tian
-C) San Qi
-D) Di Gu Pi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1136,14 +1112,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>According to the description of "An Gong Niu Huang Wan" in the sources, which organ is symbolized by "Gong" in the formula's name?
-A) Lung
-B) Liver
-C) Pericardium
-D) Spleen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>An means pacifying or calming, and Gong means the Palace, the place where the emperor resides. Gong here is a metaphor for the Pericardium, which surrounds and shields the Heart (the Emperor) in the same manner as a palace surrounds and protects the ruler. Thus, the translation of Pacifying the Pericardium.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1157,10 +1125,6 @@
   </si>
   <si>
     <t>Asinum Gelatinum E Jiao ... Part Used: Glue or gelatin made from inner tallow of donkey skin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The sources mention that the herb "E Jiao" is made from the glue or gelatin of donkey skin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1200,10 +1164,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>The sources state that in TCVM, the Kidney dominates the Yang of the whole body, thus therapy for tonifying Yang always begins with tonifying the Kidney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Kidney dominates the Yang of the whole body; the therapy of tonifying Yang always begins with tonifying the Kidney.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1213,14 +1173,6 @@
 B) 肺、大腸 (Lung, Large Intestine)
 C) 肝、腎 (Liver, Kidney)
 D) 心、小腸 (Heart, Small Intestine)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>According to the sources' description of "Amyda Bie Jia", its main actions include "Nourish Yin" and "Soften hardness, remove nodules", and it enters which Channel-Organs?
-A) Spleen, Stomach
-B) Lung, Large Intestine
-C) Liver, Kidney
-D) Heart, Small Intestine</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1239,10 +1191,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>The sources recommend that "Bu Zhong Yi Qi Tang" is contraindicated for patients with Yin Deficiency with hectic fever</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Cautions and Contraindications: This formula is con-traindicated for patients of Yin Defi ciency with hectic fever.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1259,10 +1207,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"Ge Jie San" was a very important classical formula for chronic heaves and lower airway diseases due to Lung Yin and Kidney Qi Deficiency in horses</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Dr. Xie ’ s Comments: Ge Jie San was a very important classical formula for chronic heaves and lower airway diseases due to Lung Yin and Kidney Qi Defi ciency in horses.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1275,23 +1219,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>According to the sources, in the clinical study of modified "Di Tan Tang" for treating hyperlipidemia, was the difference in reducing blood fat level between the treatment group and the control group significant?
-A) Not significant (P &gt; 0.05)
-B) Significant (P &lt; 0.01)
-C) Significance level not provided
-D) This clinical study is not mentioned in the sources</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>After 3 months of herbal treatments, the total effectiveness rate of the treatment group was 94.9% and of the control group it was 71.1%. There was a remarkable difference in reducing blood fat level between them (P &lt; 0.01).</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根據 TCVM 的脈診理論，腎陰與左側脈有關，而腎陽與右側脈有關</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The sources mention that, according to TCVM pulse theory, Kidney Yin is associated with the left side of the pulse, and Kidney Yang is related to the right side of the pulse</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1324,19 +1256,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>The sources state that the name "Qing Qi Hua Tan Wan" reflects its function, where "Qing Qi" refers to clearing Lung Heat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Qing Qi Hua Tan Wan (Clearing Heat and Transforming Phlegm) This formula is named after its function: Qing Qi means clearing (Lung) Heat, Hua Tan means transforming Phlegm, and Wan means pill.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中藥方劑中的「使 (Messenger)」成分，其作用之一是作為藥方成分間的協調者 (peacemaker and coordinator)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>According to the sources, one role of the "Messenger (Shi)" component in a Chinese herbal formula is to act as a peacemaker and coordinator among herbal components</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1464,13 +1388,6 @@
 A) 千分之一 (one-thousandth, 1/1000)
 B) 百分之一 (one-hundredth, 1/100)
 C) 十分之七 (seven-tenths, 7/10)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>According to the sources' explanation of the name "Qi Li San", what ratio of "Liang" does "Li" represent in ancient Chinese weight units?
-A) One-thousandth (1/1000)
-B) One-hundredth (1/100)
-C) Seven-tenths (7/10)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1535,12 +1452,132 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Chapter 1: Herbs to Tonify Defi ciency 61
+    <t>The description of "Amyda Bie Jia", its main actions include "Nourish Yin" and "Soften hardness, remove nodules", and it enters which Channel-Organs?
+A) Spleen, Stomach
+B) Lung, Large Intestine
+C) Liver, Kidney
+D) Heart, Small Intestine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>According to TCVM pulse theory, Kidney Yin is associated with the left side of the pulse, and Kidney Yang is related to the right side of the pulse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bu Zhong Yi Qi Tang" is contraindicated for patients with Yin Deficiency with hectic fever</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name "Qing Qi Hua Tan Wan" reflects its function, where "Qing Qi" refers to clearing Lung Heat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>According to the explanation of the name "Qi Li San", what ratio of "Liang" does "Li" represent in ancient Chinese weight units?
+A) One-thousandth (1/1000)
+B) One-hundredth (1/100)
+C) Seven-tenths (7/10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>According to the description of "An Gong Niu Huang Wan", which organ is symbolized by "Gong" in the formula's name?
+A) Lung
+B) Liver
+C) Pericardium
+D) Spleen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The herb "E Jiao" is made from the glue or gelatin of donkey skin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>In TCVM, the Kidney dominates the Yang of the whole body, thus therapy for tonifying Yang always begins with tonifying the Kidney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The herb "白合Bai He", also known as "Lily bulb", represented the majesty of the royal house in ancient France</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>According to a historical story , which herb was said to help Zhuge Liang's army feel warm during hunger and cold and scare away the enemy (despite causing an embarrassing side effect)?
+A) Bai He
+B) Ba Ji Tian
+C) San Qi
+D) Di Gu Pi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deficiency Patterns are often seen in geriatric patients with chronic illnesses.The Deficiency Pattern is often seen in older patients with chronic illnesses.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the composition of a Chinese herbal formula, which of the following is NOT a function of the “Adjuvant (Zuo)” herb?
+A) Address the minor cause of disease or a secondary Pattern
+B) Suppress the toxicity or overly harsh action of the King/Minister herbs
+C) Assist or enhance the action of the King herb
+D) Balance the overall energy of the whole prescription</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Ge Jie San” is an important classical formula for treating chronic cough in horses caused by Lung Yin and Kidney Qi deficiency.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the clinical study of the modified “Di Tan Tang” for treating hyperlipidemia, was the lipid-lowering effect of the treatment group significantly different from the control group?
+A) Not significant (P &gt; 0.05)
+B) Significant (P &lt; 0.01)
+C) Significance level not provided
+D) This clinical study is not mentioned in the sources</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>One role of the "Messenger (使)" component in a Chinese herbal formula is to act as a peacemaker and coordinator among herbal components</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中醫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patients with Deficiency Patterns usually exhibit general weakness, fatigue, leth-argy, a weak pulse, and a pale or red tongue.
+The typical clinical signs of a Defi ciency Pattern include general weakness, fatigue, lethargy, weak pulse, and a pale or red tongue.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chapter 1: Herbs to Tonify Defi ciency 61
 4. Urinary incontinence or increased frequency Combine with : Psoralea Bu Gu Zhi and Rubus Fu Pen
 Zi , Alpinia Yi Zhi Ren 5. To strengthen bone degeneration and help in repair
 of bone fractures Combine with : Dipsacus Xu Duan
-History and Comments: 1. Ba Ji Tian was accidentally used and helped Zhuge
+History and Comments: 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ba Ji Tian </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was accidentally used and helped Zhuge
 Liang ’ s army. Zhuge Liang (181 – 234 CE) was the most famous statesman and strategic general in Chinese history. He was the Chief Chancellor of the Shu Kingdom (known as Si - chuan today) during the Three Kingdoms period (220 – 280 CE). Zhuge Liang marched south to conquer the barbaric tribes and devised a clever plan to capture the tribal King. He commanded General Zhang Yi to lead one thousand soldiers to hide in a valley. The troops were to move in behind the barbarian tribes entering the valley and prevent their escape, trapping them. Zhuge Liang sent Zhang Yi to his task with a fi nal warning that “ Anyone who fails to execute the plan will be beheaded. ” When the troops failed their task, Zhang Yi was afraid that he and his subordinates would all be killed. Attempting to avert mortal punishment, he wrote a report explaining the reason for the failure. He explained that a 3 - day storm cut off pro-visions from the troops waiting in ambush in the valley. The cold and hungry soldiers ate the roots of the nearby grasses. One herb ( Ba Ji Tian ) with a white and purple root, tender texture, fl eshy appear-ance, and a sweet, slightly spicy taste was particu-larly popular among the men. It deterred hunger and kept them warm, so everyone enjoyed eating it. However, after eating the herb for several days, all the soldiers suffered from an embarrassing ailment. Every man had a long - lasting erection he could hardly bear, and he could not stop groaning. The groaning sound from the one thousand soldiers reverberated in the valley like a roaring wind, which scared away the enemy. Thus, the army won the battle but did not capture all the barbaric tribe members. When Zhuge Liang heard the story, he summarized the battle by writing: “ Ba Ji pointed to the sky, gave man ’ s power, and made the enemy run away. We all would enjoy having this problem. ” Ba Ji literally refers to a halberd, which is an ancient spearlike weapon. When the two characters are reversed to form “ Ji Ba , ” it becomes a Chinese slang term referring to a man ’ s penis. “ Tian ” literally means sky. Therefore the herb ’ s name “ Ba Ji Tian ” became a testament to the Chief Counselor ’ s sense of humor. Since that time, “ Ba Ji Tian ” has often been used in formulas that tonify the Kidney Yang .</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1548,7 +1585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,6 +1618,15 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1961,8 +2007,8 @@
   </sheetPr>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1973,13 +2019,13 @@
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="45.796875" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.59765625" customWidth="1"/>
-    <col min="8" max="8" width="47.796875" customWidth="1"/>
+    <col min="7" max="7" width="69.19921875" customWidth="1"/>
+    <col min="8" max="8" width="106.796875" customWidth="1"/>
     <col min="9" max="9" width="21.796875" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" customHeight="1">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="47" customHeight="1">
+    <row r="2" spans="1:10" ht="46">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2019,22 +2065,22 @@
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>14</v>
@@ -2043,7 +2089,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="106" customHeight="1">
+    <row r="3" spans="1:10" ht="106">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2057,16 +2103,16 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="G3" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>14</v>
@@ -2075,7 +2121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" customHeight="1">
+    <row r="4" spans="1:10" ht="61">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2083,22 +2129,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>329</v>
+        <v>412</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
@@ -2107,7 +2153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="35" customHeight="1">
+    <row r="5" spans="1:10" ht="31">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2115,22 +2161,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>14</v>
@@ -2139,7 +2185,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="46" customHeight="1">
+    <row r="6" spans="1:10" ht="371">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2153,16 +2199,16 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>14</v>
@@ -2171,7 +2217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="53" customHeight="1">
+    <row r="7" spans="1:10" ht="121">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2179,22 +2225,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F7" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>14</v>
@@ -2203,7 +2249,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="64" customHeight="1">
+    <row r="8" spans="1:10" ht="106">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2217,16 +2263,16 @@
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>14</v>
@@ -2235,30 +2281,30 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="53" customHeight="1">
+    <row r="9" spans="1:10" ht="31">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>14</v>
@@ -2267,7 +2313,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="41" customHeight="1">
+    <row r="10" spans="1:10" ht="31">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2275,22 +2321,22 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>14</v>
@@ -2299,7 +2345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="56" customHeight="1">
+    <row r="11" spans="1:10" ht="106">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2313,16 +2359,16 @@
         <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>14</v>
@@ -2331,7 +2377,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="52" customHeight="1">
+    <row r="12" spans="1:10" ht="46">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2345,16 +2391,16 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>14</v>
@@ -2363,7 +2409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="48" customHeight="1">
+    <row r="13" spans="1:10" ht="226">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2377,16 +2423,16 @@
         <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>14</v>
@@ -2395,7 +2441,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="37" customHeight="1">
+    <row r="14" spans="1:10" ht="46">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2403,22 +2449,22 @@
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F14" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>14</v>
@@ -2427,7 +2473,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="44" customHeight="1">
+    <row r="15" spans="1:10" ht="151">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2441,16 +2487,16 @@
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>14</v>
@@ -2459,7 +2505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="38" customHeight="1">
+    <row r="16" spans="1:10" ht="31">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2467,19 +2513,19 @@
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F16" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>22</v>
+        <v>407</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>21</v>
@@ -2491,7 +2537,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="39" customHeight="1">
+    <row r="17" spans="1:10" ht="151">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2505,16 +2551,16 @@
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>14</v>
@@ -2523,7 +2569,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="58" customHeight="1">
+    <row r="18" spans="1:10" ht="91">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2531,22 +2577,22 @@
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F18" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>14</v>
@@ -2555,7 +2601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="91">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2569,16 +2615,16 @@
         <v>12</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>14</v>
@@ -2587,7 +2633,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="61">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2595,22 +2641,22 @@
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F20" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>14</v>
@@ -2619,7 +2665,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="99" customHeight="1">
+    <row r="21" spans="1:10" ht="211">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2633,16 +2679,16 @@
         <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>14</v>
@@ -2651,12 +2697,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="46">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>11</v>
@@ -2665,16 +2711,16 @@
         <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>14</v>
@@ -2683,30 +2729,30 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="119" customHeight="1">
+    <row r="23" spans="1:10" ht="136">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>14</v>
@@ -2715,12 +2761,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="109" customHeight="1">
+    <row r="24" spans="1:10" ht="91">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>11</v>
@@ -2729,16 +2775,16 @@
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F24" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>14</v>
@@ -2747,30 +2793,30 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="120" customHeight="1">
+    <row r="25" spans="1:10" ht="315">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>411</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>366</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>12</v>
+        <v>410</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>14</v>
@@ -2779,30 +2825,30 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="85" customHeight="1">
+    <row r="26" spans="1:10" ht="61">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F26" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>14</v>
@@ -2811,12 +2857,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="101" customHeight="1">
+    <row r="27" spans="1:10" ht="76">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>16</v>
@@ -2825,16 +2871,16 @@
         <v>12</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>14</v>
@@ -2843,30 +2889,30 @@
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="84" customHeight="1">
+    <row r="28" spans="1:10" ht="46">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F28" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>14</v>
@@ -2875,12 +2921,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="139" customHeight="1">
+    <row r="29" spans="1:10" ht="106">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>16</v>
@@ -2889,16 +2935,16 @@
         <v>12</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>14</v>
@@ -2907,30 +2953,30 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="63" customHeight="1">
+    <row r="30" spans="1:10" ht="166">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F30" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>14</v>
@@ -2939,12 +2985,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="81" customHeight="1">
+    <row r="31" spans="1:10" ht="91">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>16</v>
@@ -2953,16 +2999,16 @@
         <v>12</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>14</v>
@@ -2971,7 +3017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17.25" customHeight="1">
+    <row r="32" spans="1:10" ht="46">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2985,25 +3031,25 @@
         <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="J32" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="17.25" customHeight="1">
+    <row r="33" spans="1:10" ht="46">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3017,25 +3063,25 @@
         <v>12</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J33" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17.25" customHeight="1">
+    <row r="34" spans="1:10" ht="46">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3049,25 +3095,25 @@
         <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J34" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17.25" customHeight="1">
+    <row r="35" spans="1:10" ht="46">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3081,25 +3127,25 @@
         <v>12</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J35" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="17.25" customHeight="1">
+    <row r="36" spans="1:10" ht="46">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3113,25 +3159,25 @@
         <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J36" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17.25" customHeight="1">
+    <row r="37" spans="1:10" ht="46">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3145,25 +3191,25 @@
         <v>12</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J37" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17.25" customHeight="1">
+    <row r="38" spans="1:10" ht="46">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3177,25 +3223,25 @@
         <v>12</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J38" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="17.25" customHeight="1">
+    <row r="39" spans="1:10" ht="46">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3209,25 +3255,25 @@
         <v>12</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J39" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17.25" customHeight="1">
+    <row r="40" spans="1:10" ht="31">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3241,30 +3287,30 @@
         <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="J40" s="4">
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17.25" customHeight="1">
+    <row r="41" spans="1:10" ht="46">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>11</v>
@@ -3273,30 +3319,30 @@
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J41" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.25" customHeight="1">
+    <row r="42" spans="1:10" ht="46">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>11</v>
@@ -3305,30 +3351,30 @@
         <v>12</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J42" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17.25" customHeight="1">
+    <row r="43" spans="1:10" ht="46">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>11</v>
@@ -3337,30 +3383,30 @@
         <v>12</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J43" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17.25" customHeight="1">
+    <row r="44" spans="1:10" ht="46">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>11</v>
@@ -3369,30 +3415,30 @@
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J44" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.25" customHeight="1">
+    <row r="45" spans="1:10" ht="46">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>11</v>
@@ -3401,30 +3447,30 @@
         <v>12</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J45" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="17.25" customHeight="1">
+    <row r="46" spans="1:10" ht="46">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>11</v>
@@ -3433,25 +3479,25 @@
         <v>12</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J46" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="17.25" customHeight="1">
+    <row r="47" spans="1:10" ht="46">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3465,25 +3511,25 @@
         <v>12</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J47" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="17.25" customHeight="1">
+    <row r="48" spans="1:10" ht="61">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3497,25 +3543,25 @@
         <v>12</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J48" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="17.25" customHeight="1">
+    <row r="49" spans="1:10" ht="61">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3529,25 +3575,25 @@
         <v>12</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J49" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="17.25" customHeight="1">
+    <row r="50" spans="1:10" ht="46">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3561,25 +3607,25 @@
         <v>12</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J50" s="4">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17.25" customHeight="1">
+    <row r="51" spans="1:10" ht="46">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3593,25 +3639,25 @@
         <v>12</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J51" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="17.25" customHeight="1">
+    <row r="52" spans="1:10" ht="46">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3625,25 +3671,25 @@
         <v>12</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J52" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="17.25" customHeight="1">
+    <row r="53" spans="1:10" ht="46">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3657,25 +3703,25 @@
         <v>12</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J53" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="17.25" customHeight="1">
+    <row r="54" spans="1:10" ht="61">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3689,25 +3735,25 @@
         <v>12</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J54" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="17.25" customHeight="1">
+    <row r="55" spans="1:10" ht="61">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3721,30 +3767,30 @@
         <v>12</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J55" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.25" customHeight="1">
+    <row r="56" spans="1:10" ht="61">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>16</v>
@@ -3753,30 +3799,30 @@
         <v>12</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J56" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="17.25" customHeight="1">
+    <row r="57" spans="1:10" ht="46">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>16</v>
@@ -3785,30 +3831,30 @@
         <v>12</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J57" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17.25" customHeight="1">
+    <row r="58" spans="1:10" ht="31">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>16</v>
@@ -3817,30 +3863,30 @@
         <v>12</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J58" s="4">
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="17.25" customHeight="1">
+    <row r="59" spans="1:10" ht="31">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>16</v>
@@ -3849,30 +3895,30 @@
         <v>12</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J59" s="4">
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17.25" customHeight="1">
+    <row r="60" spans="1:10" ht="46">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>16</v>
@@ -3881,30 +3927,30 @@
         <v>12</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J60" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="17.25" customHeight="1">
+    <row r="61" spans="1:10" ht="61">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>16</v>
@@ -3913,25 +3959,25 @@
         <v>12</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J61" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="17.25" customHeight="1">
+    <row r="62" spans="1:10" ht="91">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3939,31 +3985,31 @@
         <v>10</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="I62" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J62" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="17.25" customHeight="1">
+    <row r="63" spans="1:10" ht="76">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3971,31 +4017,31 @@
         <v>10</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="G63" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="I63" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J63" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="17.25" customHeight="1">
+    <row r="64" spans="1:10" ht="76">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4003,31 +4049,31 @@
         <v>10</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="G64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="I64" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J64" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="17.25" customHeight="1">
+    <row r="65" spans="1:10" ht="91">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -4035,31 +4081,31 @@
         <v>20</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="G65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="I65" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J65" s="4">
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="17.25" customHeight="1">
+    <row r="66" spans="1:10" ht="76">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4067,31 +4113,31 @@
         <v>20</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="G66" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="I66" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J66" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="17.25" customHeight="1">
+    <row r="67" spans="1:10" ht="61">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4099,479 +4145,479 @@
         <v>20</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="17.25" customHeight="1">
+    </row>
+    <row r="68" spans="1:10" ht="76">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="I68" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J68" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="17.25" customHeight="1">
+    <row r="69" spans="1:10" ht="91">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="I69" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J69" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="17.25" customHeight="1">
+    <row r="70" spans="1:10" ht="76">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="G70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="I70" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J70" s="4">
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="17.25" customHeight="1">
+    <row r="71" spans="1:10" ht="91">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="G71" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="I71" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J71" s="4">
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="17.25" customHeight="1">
+    <row r="72" spans="1:10" ht="61">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H72" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="J72" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="17.25" customHeight="1">
+    <row r="73" spans="1:10" ht="61">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E73" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H73" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="I73" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J73" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="17.25" customHeight="1">
+    <row r="74" spans="1:10" ht="46">
       <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H74" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="J74" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="17.25" customHeight="1">
+    <row r="75" spans="1:10" ht="46">
       <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J75" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="17.25" customHeight="1">
+    <row r="76" spans="1:10" ht="76">
       <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="J76" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="17.25" customHeight="1">
+    <row r="77" spans="1:10" ht="76">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J77" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="17.25" customHeight="1">
+    <row r="78" spans="1:10" ht="76">
       <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J78" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="17.25" customHeight="1">
+    <row r="79" spans="1:10" ht="76">
       <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J79" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="17.25" customHeight="1">
+    <row r="80" spans="1:10" ht="76">
       <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J80" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="17.25" customHeight="1">
+    <row r="81" spans="1:10" ht="76">
       <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E81" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="I81" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J81" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17.25" customHeight="1">
+    <row r="82" spans="1:10" ht="76">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4582,28 +4628,28 @@
         <v>16</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J82" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17.25" customHeight="1">
+    <row r="83" spans="1:10" ht="76">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -4614,28 +4660,28 @@
         <v>16</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J83" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17.25" customHeight="1">
+    <row r="84" spans="1:10" ht="76">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -4646,28 +4692,28 @@
         <v>16</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J84" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17.25" customHeight="1">
+    <row r="85" spans="1:10" ht="61">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -4678,28 +4724,28 @@
         <v>16</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J85" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17.25" customHeight="1">
+    <row r="86" spans="1:10" ht="61">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -4710,28 +4756,28 @@
         <v>16</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J86" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17.25" customHeight="1">
+    <row r="87" spans="1:10" ht="46">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4742,28 +4788,28 @@
         <v>16</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J87" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17.25" customHeight="1">
+    <row r="88" spans="1:10" ht="61">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4774,28 +4820,28 @@
         <v>16</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E88" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H88" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="I88" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J88" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17.25" customHeight="1">
+    <row r="89" spans="1:10" ht="76">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -4806,28 +4852,28 @@
         <v>16</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J89" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="17.25" customHeight="1">
+    <row r="90" spans="1:10" ht="46">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -4838,28 +4884,28 @@
         <v>16</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J90" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="17.25" customHeight="1">
+    <row r="91" spans="1:10" ht="61">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -4870,284 +4916,284 @@
         <v>16</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J91" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17.25" customHeight="1">
+    <row r="92" spans="1:10" ht="61">
       <c r="A92" s="4">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J92" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="17.25" customHeight="1">
+    <row r="93" spans="1:10" ht="76">
       <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J93" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="17.25" customHeight="1">
+    <row r="94" spans="1:10" ht="76">
       <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J94" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17.25" customHeight="1">
+    <row r="95" spans="1:10" ht="76">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J95" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="17.25" customHeight="1">
+    <row r="96" spans="1:10" ht="46">
       <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J96" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17.25" customHeight="1">
+    <row r="97" spans="1:10" ht="61">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J97" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17.25" customHeight="1">
+    <row r="98" spans="1:10" ht="61">
       <c r="A98" s="4">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J98" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17.25" customHeight="1">
+    <row r="99" spans="1:10" ht="76">
       <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J99" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="17.25" customHeight="1">
+    <row r="100" spans="1:10" ht="46">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -5158,28 +5204,28 @@
         <v>11</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J100" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="17.25" customHeight="1">
+    <row r="101" spans="1:10" ht="76">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -5190,28 +5236,28 @@
         <v>11</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J101" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="17.25" customHeight="1">
+    <row r="102" spans="1:10" ht="76">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -5222,28 +5268,28 @@
         <v>11</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J102" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="17.25" customHeight="1">
+    <row r="103" spans="1:10" ht="76">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -5254,28 +5300,28 @@
         <v>11</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J103" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="17.25" customHeight="1">
+    <row r="104" spans="1:10" ht="76">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -5286,28 +5332,28 @@
         <v>11</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J104" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="17.25" customHeight="1">
+    <row r="105" spans="1:10" ht="76">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -5318,28 +5364,28 @@
         <v>11</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J105" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="17.25" customHeight="1">
+    <row r="106" spans="1:10" ht="76">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -5350,28 +5396,28 @@
         <v>11</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J106" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="17.25" customHeight="1">
+    <row r="107" spans="1:10" ht="76">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -5382,28 +5428,28 @@
         <v>11</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J107" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="17.25" customHeight="1">
+    <row r="108" spans="1:10" ht="46">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -5414,28 +5460,28 @@
         <v>11</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J108" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="17.25" customHeight="1">
+    <row r="109" spans="1:10" ht="46">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -5446,28 +5492,28 @@
         <v>11</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J109" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="17.25" customHeight="1">
+    <row r="110" spans="1:10" ht="46">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -5478,156 +5524,156 @@
         <v>11</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J110" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="17.25" customHeight="1">
+    <row r="111" spans="1:10" ht="76">
       <c r="A111" s="4">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E111" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="G111" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G111" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="I111" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J111" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="17.25" customHeight="1">
+    <row r="112" spans="1:10" ht="76">
       <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E112" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="G112" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="I112" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J112" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="17.25" customHeight="1">
+    <row r="113" spans="1:10" ht="91">
       <c r="A113" s="4">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E113" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="G113" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G113" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="I113" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J113" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="17.25" customHeight="1">
+    <row r="114" spans="1:10" ht="76">
       <c r="A114" s="4">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E114" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="G114" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="G114" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="I114" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J114" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="17.25" customHeight="1">
+    <row r="115" spans="1:10" ht="76">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -5635,31 +5681,31 @@
         <v>20</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E115" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="G115" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="G115" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="I115" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J115" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="17.25" customHeight="1">
+    <row r="116" spans="1:10" ht="76">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -5667,31 +5713,31 @@
         <v>20</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E116" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="G116" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G116" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="I116" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J116" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="17.25" customHeight="1">
+    <row r="117" spans="1:10" ht="76">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -5699,31 +5745,31 @@
         <v>20</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E117" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="G117" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H117" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G117" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="I117" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J117" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="17.25" customHeight="1">
+    <row r="118" spans="1:10" ht="76">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -5731,31 +5777,31 @@
         <v>10</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E118" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="G118" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H118" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G118" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="I118" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J118" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="17.25" customHeight="1">
+    <row r="119" spans="1:10" ht="46">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -5763,31 +5809,31 @@
         <v>10</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E119" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="G119" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="G119" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="I119" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J119" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="17.25" customHeight="1">
+    <row r="120" spans="1:10" ht="91">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -5795,25 +5841,25 @@
         <v>10</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E120" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="G120" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G120" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="I120" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J120" s="4">
         <v>6</v>
